--- a/modules_schedules/Y4_B2526_General_&_Special_surgery_1_B1_schedule.xlsx
+++ b/modules_schedules/Y4_B2526_General_&_Special_surgery_1_B1_schedule.xlsx
@@ -463,7 +463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1462,6 +1462,4731 @@
         <v>180</v>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B29" s="6" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C29" s="6" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D29" s="6" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="E29" s="7" t="inlineStr">
+        <is>
+          <t>23/11/2024</t>
+        </is>
+      </c>
+      <c r="F29" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G29" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="E30" s="3" t="inlineStr">
+        <is>
+          <t>24/11/2024</t>
+        </is>
+      </c>
+      <c r="F30" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G30" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B31" s="6" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C31" s="6" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D31" s="6" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="E31" s="7" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="F31" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G31" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="E32" s="3" t="inlineStr">
+        <is>
+          <t>30/11/2024</t>
+        </is>
+      </c>
+      <c r="F32" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G32" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B33" s="6" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C33" s="6" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D33" s="6" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="E33" s="7" t="inlineStr">
+        <is>
+          <t>01/12/2024</t>
+        </is>
+      </c>
+      <c r="F33" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G33" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="E34" s="3" t="inlineStr">
+        <is>
+          <t>02/12/2024</t>
+        </is>
+      </c>
+      <c r="F34" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G34" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B35" s="6" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C35" s="6" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D35" s="6" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="E35" s="7" t="inlineStr">
+        <is>
+          <t>07/12/2024</t>
+        </is>
+      </c>
+      <c r="F35" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G35" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="E36" s="3" t="inlineStr">
+        <is>
+          <t>08/12/2024</t>
+        </is>
+      </c>
+      <c r="F36" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G36" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B37" s="6" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C37" s="6" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D37" s="6" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="E37" s="7" t="inlineStr">
+        <is>
+          <t>09/12/2024</t>
+        </is>
+      </c>
+      <c r="F37" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G37" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="E38" s="3" t="inlineStr">
+        <is>
+          <t>14/12/2024</t>
+        </is>
+      </c>
+      <c r="F38" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G38" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B39" s="6" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C39" s="6" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D39" s="6" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="E39" s="7" t="inlineStr">
+        <is>
+          <t>15/12/2024</t>
+        </is>
+      </c>
+      <c r="F39" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G39" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="E40" s="3" t="inlineStr">
+        <is>
+          <t>16/12/2024</t>
+        </is>
+      </c>
+      <c r="F40" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G40" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B41" s="6" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C41" s="6" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D41" s="6" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="E41" s="7" t="inlineStr">
+        <is>
+          <t>21/12/2024</t>
+        </is>
+      </c>
+      <c r="F41" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G41" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="E42" s="3" t="inlineStr">
+        <is>
+          <t>22/12/2024</t>
+        </is>
+      </c>
+      <c r="F42" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G42" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B43" s="6" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C43" s="6" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D43" s="6" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="E43" s="7" t="inlineStr">
+        <is>
+          <t>23/12/2024</t>
+        </is>
+      </c>
+      <c r="F43" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G43" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="E44" s="3" t="inlineStr">
+        <is>
+          <t>28/12/2024</t>
+        </is>
+      </c>
+      <c r="F44" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G44" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B45" s="6" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C45" s="6" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D45" s="6" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="E45" s="7" t="inlineStr">
+        <is>
+          <t>29/12/2024</t>
+        </is>
+      </c>
+      <c r="F45" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G45" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="E46" s="3" t="inlineStr">
+        <is>
+          <t>30/12/2024</t>
+        </is>
+      </c>
+      <c r="F46" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G46" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B47" s="6" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C47" s="6" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D47" s="6" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="E47" s="7" t="inlineStr">
+        <is>
+          <t>04/01/2025</t>
+        </is>
+      </c>
+      <c r="F47" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G47" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="E48" s="3" t="inlineStr">
+        <is>
+          <t>05/01/2025</t>
+        </is>
+      </c>
+      <c r="F48" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G48" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B49" s="6" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C49" s="6" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D49" s="6" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="E49" s="7" t="inlineStr">
+        <is>
+          <t>06/01/2025</t>
+        </is>
+      </c>
+      <c r="F49" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G49" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="E50" s="3" t="inlineStr">
+        <is>
+          <t>11/01/2025</t>
+        </is>
+      </c>
+      <c r="F50" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G50" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B51" s="6" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C51" s="6" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D51" s="6" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="E51" s="7" t="inlineStr">
+        <is>
+          <t>12/01/2025</t>
+        </is>
+      </c>
+      <c r="F51" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G51" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="E52" s="3" t="inlineStr">
+        <is>
+          <t>13/01/2025</t>
+        </is>
+      </c>
+      <c r="F52" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G52" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B53" s="6" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C53" s="6" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D53" s="6" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="E53" s="7" t="inlineStr">
+        <is>
+          <t>18/01/2025</t>
+        </is>
+      </c>
+      <c r="F53" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G53" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="E54" s="3" t="inlineStr">
+        <is>
+          <t>19/01/2025</t>
+        </is>
+      </c>
+      <c r="F54" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G54" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B55" s="6" t="inlineStr">
+        <is>
+          <t>B1B</t>
+        </is>
+      </c>
+      <c r="C55" s="6" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D55" s="6" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="E55" s="7" t="inlineStr">
+        <is>
+          <t>20/01/2025</t>
+        </is>
+      </c>
+      <c r="F55" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G55" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E56" s="3" t="inlineStr">
+        <is>
+          <t>22/11/2025</t>
+        </is>
+      </c>
+      <c r="F56" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G56" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B57" s="6" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C57" s="6" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D57" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E57" s="7" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="F57" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G57" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E58" s="3" t="inlineStr">
+        <is>
+          <t>24/11/2025</t>
+        </is>
+      </c>
+      <c r="F58" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G58" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B59" s="6" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C59" s="6" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D59" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E59" s="7" t="inlineStr">
+        <is>
+          <t>29/11/2025</t>
+        </is>
+      </c>
+      <c r="F59" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G59" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E60" s="3" t="inlineStr">
+        <is>
+          <t>30/11/2025</t>
+        </is>
+      </c>
+      <c r="F60" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G60" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B61" s="6" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C61" s="6" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D61" s="6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E61" s="7" t="inlineStr">
+        <is>
+          <t>01/12/2025</t>
+        </is>
+      </c>
+      <c r="F61" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G61" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E62" s="3" t="inlineStr">
+        <is>
+          <t>06/12/2025</t>
+        </is>
+      </c>
+      <c r="F62" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G62" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B63" s="6" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C63" s="6" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D63" s="6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E63" s="7" t="inlineStr">
+        <is>
+          <t>07/12/2025</t>
+        </is>
+      </c>
+      <c r="F63" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G63" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E64" s="3" t="inlineStr">
+        <is>
+          <t>08/12/2025</t>
+        </is>
+      </c>
+      <c r="F64" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G64" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B65" s="6" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C65" s="6" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D65" s="6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E65" s="7" t="inlineStr">
+        <is>
+          <t>13/12/2025</t>
+        </is>
+      </c>
+      <c r="F65" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G65" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E66" s="3" t="inlineStr">
+        <is>
+          <t>14/12/2025</t>
+        </is>
+      </c>
+      <c r="F66" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G66" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B67" s="6" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C67" s="6" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D67" s="6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E67" s="7" t="inlineStr">
+        <is>
+          <t>15/12/2025</t>
+        </is>
+      </c>
+      <c r="F67" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G67" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E68" s="3" t="inlineStr">
+        <is>
+          <t>20/12/2025</t>
+        </is>
+      </c>
+      <c r="F68" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G68" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B69" s="6" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C69" s="6" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D69" s="6" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E69" s="7" t="inlineStr">
+        <is>
+          <t>21/12/2025</t>
+        </is>
+      </c>
+      <c r="F69" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G69" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E70" s="3" t="inlineStr">
+        <is>
+          <t>22/12/2025</t>
+        </is>
+      </c>
+      <c r="F70" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G70" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B71" s="6" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C71" s="6" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D71" s="6" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E71" s="7" t="inlineStr">
+        <is>
+          <t>27/12/2025</t>
+        </is>
+      </c>
+      <c r="F71" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G71" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E72" s="3" t="inlineStr">
+        <is>
+          <t>28/12/2025</t>
+        </is>
+      </c>
+      <c r="F72" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G72" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B73" s="6" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C73" s="6" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D73" s="6" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E73" s="7" t="inlineStr">
+        <is>
+          <t>29/12/2025</t>
+        </is>
+      </c>
+      <c r="F73" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G73" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E74" s="3" t="inlineStr">
+        <is>
+          <t>03/01/2026</t>
+        </is>
+      </c>
+      <c r="F74" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G74" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B75" s="6" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C75" s="6" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D75" s="6" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E75" s="7" t="inlineStr">
+        <is>
+          <t>04/01/2026</t>
+        </is>
+      </c>
+      <c r="F75" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G75" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E76" s="3" t="inlineStr">
+        <is>
+          <t>05/01/2026</t>
+        </is>
+      </c>
+      <c r="F76" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G76" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B77" s="6" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C77" s="6" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D77" s="6" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E77" s="7" t="inlineStr">
+        <is>
+          <t>10/01/2026</t>
+        </is>
+      </c>
+      <c r="F77" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G77" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E78" s="3" t="inlineStr">
+        <is>
+          <t>11/01/2026</t>
+        </is>
+      </c>
+      <c r="F78" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G78" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B79" s="6" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C79" s="6" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D79" s="6" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E79" s="7" t="inlineStr">
+        <is>
+          <t>12/01/2026</t>
+        </is>
+      </c>
+      <c r="F79" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G79" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E80" s="3" t="inlineStr">
+        <is>
+          <t>17/01/2026</t>
+        </is>
+      </c>
+      <c r="F80" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G80" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B81" s="6" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C81" s="6" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D81" s="6" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E81" s="7" t="inlineStr">
+        <is>
+          <t>18/01/2026</t>
+        </is>
+      </c>
+      <c r="F81" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G81" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="inlineStr">
+        <is>
+          <t>B1C</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E82" s="3" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="F82" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G82" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B83" s="6" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C83" s="6" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D83" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E83" s="7" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="F83" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G83" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D84" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E84" s="3" t="inlineStr">
+        <is>
+          <t>26/11/2025</t>
+        </is>
+      </c>
+      <c r="F84" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G84" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B85" s="6" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C85" s="6" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D85" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E85" s="7" t="inlineStr">
+        <is>
+          <t>27/11/2025</t>
+        </is>
+      </c>
+      <c r="F85" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G85" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C86" s="2" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D86" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E86" s="3" t="inlineStr">
+        <is>
+          <t>02/12/2025</t>
+        </is>
+      </c>
+      <c r="F86" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G86" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B87" s="6" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C87" s="6" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D87" s="6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E87" s="7" t="inlineStr">
+        <is>
+          <t>03/12/2025</t>
+        </is>
+      </c>
+      <c r="F87" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G87" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D88" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E88" s="3" t="inlineStr">
+        <is>
+          <t>04/12/2025</t>
+        </is>
+      </c>
+      <c r="F88" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G88" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B89" s="6" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C89" s="6" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D89" s="6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E89" s="7" t="inlineStr">
+        <is>
+          <t>09/12/2025</t>
+        </is>
+      </c>
+      <c r="F89" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G89" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C90" s="2" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D90" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E90" s="3" t="inlineStr">
+        <is>
+          <t>10/12/2025</t>
+        </is>
+      </c>
+      <c r="F90" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G90" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B91" s="6" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C91" s="6" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D91" s="6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E91" s="7" t="inlineStr">
+        <is>
+          <t>11/12/2025</t>
+        </is>
+      </c>
+      <c r="F91" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G91" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C92" s="2" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D92" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E92" s="3" t="inlineStr">
+        <is>
+          <t>16/12/2025</t>
+        </is>
+      </c>
+      <c r="F92" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G92" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B93" s="6" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C93" s="6" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D93" s="6" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E93" s="7" t="inlineStr">
+        <is>
+          <t>17/12/2025</t>
+        </is>
+      </c>
+      <c r="F93" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G93" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D94" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E94" s="3" t="inlineStr">
+        <is>
+          <t>18/12/2025</t>
+        </is>
+      </c>
+      <c r="F94" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G94" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B95" s="6" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C95" s="6" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D95" s="6" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E95" s="7" t="inlineStr">
+        <is>
+          <t>23/12/2025</t>
+        </is>
+      </c>
+      <c r="F95" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G95" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C96" s="2" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D96" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E96" s="3" t="inlineStr">
+        <is>
+          <t>24/12/2025</t>
+        </is>
+      </c>
+      <c r="F96" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G96" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B97" s="6" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C97" s="6" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D97" s="6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E97" s="7" t="inlineStr">
+        <is>
+          <t>25/12/2025</t>
+        </is>
+      </c>
+      <c r="F97" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G97" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B98" s="2" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C98" s="2" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D98" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E98" s="3" t="inlineStr">
+        <is>
+          <t>30/12/2025</t>
+        </is>
+      </c>
+      <c r="F98" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G98" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B99" s="6" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C99" s="6" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D99" s="6" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E99" s="7" t="inlineStr">
+        <is>
+          <t>31/12/2025</t>
+        </is>
+      </c>
+      <c r="F99" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G99" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B100" s="2" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C100" s="2" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D100" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E100" s="3" t="inlineStr">
+        <is>
+          <t>01/01/2026</t>
+        </is>
+      </c>
+      <c r="F100" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G100" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B101" s="6" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C101" s="6" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D101" s="6" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E101" s="7" t="inlineStr">
+        <is>
+          <t>06/01/2026</t>
+        </is>
+      </c>
+      <c r="F101" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G101" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B102" s="2" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C102" s="2" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D102" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E102" s="3" t="inlineStr">
+        <is>
+          <t>07/01/2026</t>
+        </is>
+      </c>
+      <c r="F102" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G102" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B103" s="6" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C103" s="6" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D103" s="6" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E103" s="7" t="inlineStr">
+        <is>
+          <t>08/01/2026</t>
+        </is>
+      </c>
+      <c r="F103" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G103" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B104" s="2" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C104" s="2" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D104" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E104" s="3" t="inlineStr">
+        <is>
+          <t>13/01/2026</t>
+        </is>
+      </c>
+      <c r="F104" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G104" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B105" s="6" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C105" s="6" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D105" s="6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E105" s="7" t="inlineStr">
+        <is>
+          <t>14/01/2026</t>
+        </is>
+      </c>
+      <c r="F105" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G105" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B106" s="2" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C106" s="2" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D106" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E106" s="3" t="inlineStr">
+        <is>
+          <t>15/01/2026</t>
+        </is>
+      </c>
+      <c r="F106" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G106" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B107" s="6" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C107" s="6" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D107" s="6" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E107" s="7" t="inlineStr">
+        <is>
+          <t>20/01/2026</t>
+        </is>
+      </c>
+      <c r="F107" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G107" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B108" s="2" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C108" s="2" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D108" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E108" s="3" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="F108" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G108" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B109" s="6" t="inlineStr">
+        <is>
+          <t>B1D</t>
+        </is>
+      </c>
+      <c r="C109" s="6" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D109" s="6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E109" s="7" t="inlineStr">
+        <is>
+          <t>22/01/2026</t>
+        </is>
+      </c>
+      <c r="F109" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G109" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B110" s="2" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C110" s="2" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D110" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E110" s="3" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="F110" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G110" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B111" s="6" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C111" s="6" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D111" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E111" s="7" t="inlineStr">
+        <is>
+          <t>26/11/2025</t>
+        </is>
+      </c>
+      <c r="F111" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G111" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B112" s="2" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C112" s="2" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D112" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E112" s="3" t="inlineStr">
+        <is>
+          <t>27/11/2025</t>
+        </is>
+      </c>
+      <c r="F112" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G112" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B113" s="6" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C113" s="6" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D113" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E113" s="7" t="inlineStr">
+        <is>
+          <t>02/12/2025</t>
+        </is>
+      </c>
+      <c r="F113" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G113" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B114" s="2" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C114" s="2" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D114" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E114" s="3" t="inlineStr">
+        <is>
+          <t>03/12/2025</t>
+        </is>
+      </c>
+      <c r="F114" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G114" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B115" s="6" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C115" s="6" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D115" s="6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E115" s="7" t="inlineStr">
+        <is>
+          <t>04/12/2025</t>
+        </is>
+      </c>
+      <c r="F115" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G115" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B116" s="2" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C116" s="2" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D116" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E116" s="3" t="inlineStr">
+        <is>
+          <t>09/12/2025</t>
+        </is>
+      </c>
+      <c r="F116" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G116" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B117" s="6" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C117" s="6" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D117" s="6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E117" s="7" t="inlineStr">
+        <is>
+          <t>10/12/2025</t>
+        </is>
+      </c>
+      <c r="F117" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G117" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B118" s="2" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C118" s="2" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D118" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E118" s="3" t="inlineStr">
+        <is>
+          <t>11/12/2025</t>
+        </is>
+      </c>
+      <c r="F118" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G118" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B119" s="6" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C119" s="6" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D119" s="6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E119" s="7" t="inlineStr">
+        <is>
+          <t>16/12/2025</t>
+        </is>
+      </c>
+      <c r="F119" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G119" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B120" s="2" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C120" s="2" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D120" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E120" s="3" t="inlineStr">
+        <is>
+          <t>17/12/2025</t>
+        </is>
+      </c>
+      <c r="F120" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G120" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B121" s="6" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C121" s="6" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D121" s="6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E121" s="7" t="inlineStr">
+        <is>
+          <t>18/12/2025</t>
+        </is>
+      </c>
+      <c r="F121" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G121" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B122" s="2" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C122" s="2" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D122" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E122" s="3" t="inlineStr">
+        <is>
+          <t>23/12/2025</t>
+        </is>
+      </c>
+      <c r="F122" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G122" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B123" s="6" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C123" s="6" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D123" s="6" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E123" s="7" t="inlineStr">
+        <is>
+          <t>24/12/2025</t>
+        </is>
+      </c>
+      <c r="F123" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G123" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B124" s="2" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C124" s="2" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D124" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E124" s="3" t="inlineStr">
+        <is>
+          <t>25/12/2025</t>
+        </is>
+      </c>
+      <c r="F124" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G124" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B125" s="6" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C125" s="6" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D125" s="6" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E125" s="7" t="inlineStr">
+        <is>
+          <t>30/12/2025</t>
+        </is>
+      </c>
+      <c r="F125" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G125" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B126" s="2" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C126" s="2" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D126" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E126" s="3" t="inlineStr">
+        <is>
+          <t>31/12/2025</t>
+        </is>
+      </c>
+      <c r="F126" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G126" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B127" s="6" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C127" s="6" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D127" s="6" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E127" s="7" t="inlineStr">
+        <is>
+          <t>01/01/2026</t>
+        </is>
+      </c>
+      <c r="F127" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G127" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B128" s="2" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C128" s="2" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D128" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E128" s="3" t="inlineStr">
+        <is>
+          <t>06/01/2026</t>
+        </is>
+      </c>
+      <c r="F128" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G128" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B129" s="6" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C129" s="6" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D129" s="6" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E129" s="7" t="inlineStr">
+        <is>
+          <t>07/01/2026</t>
+        </is>
+      </c>
+      <c r="F129" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G129" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B130" s="2" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C130" s="2" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D130" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E130" s="3" t="inlineStr">
+        <is>
+          <t>08/01/2026</t>
+        </is>
+      </c>
+      <c r="F130" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G130" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B131" s="6" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C131" s="6" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D131" s="6" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E131" s="7" t="inlineStr">
+        <is>
+          <t>13/01/2026</t>
+        </is>
+      </c>
+      <c r="F131" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G131" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B132" s="2" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C132" s="2" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D132" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E132" s="3" t="inlineStr">
+        <is>
+          <t>14/01/2026</t>
+        </is>
+      </c>
+      <c r="F132" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G132" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B133" s="6" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C133" s="6" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D133" s="6" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E133" s="7" t="inlineStr">
+        <is>
+          <t>15/01/2026</t>
+        </is>
+      </c>
+      <c r="F133" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G133" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B134" s="2" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C134" s="2" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D134" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E134" s="3" t="inlineStr">
+        <is>
+          <t>20/01/2026</t>
+        </is>
+      </c>
+      <c r="F134" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G134" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B135" s="6" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C135" s="6" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D135" s="6" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E135" s="7" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="F135" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G135" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B136" s="2" t="inlineStr">
+        <is>
+          <t>B1E</t>
+        </is>
+      </c>
+      <c r="C136" s="2" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D136" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E136" s="3" t="inlineStr">
+        <is>
+          <t>22/01/2026</t>
+        </is>
+      </c>
+      <c r="F136" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G136" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B137" s="6" t="inlineStr">
+        <is>
+          <t>B1F</t>
+        </is>
+      </c>
+      <c r="C137" s="6" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D137" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E137" s="7" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="F137" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G137" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B138" s="2" t="inlineStr">
+        <is>
+          <t>B1F</t>
+        </is>
+      </c>
+      <c r="C138" s="2" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D138" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E138" s="3" t="inlineStr">
+        <is>
+          <t>26/11/2025</t>
+        </is>
+      </c>
+      <c r="F138" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G138" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B139" s="6" t="inlineStr">
+        <is>
+          <t>B1F</t>
+        </is>
+      </c>
+      <c r="C139" s="6" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D139" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E139" s="7" t="inlineStr">
+        <is>
+          <t>27/11/2025</t>
+        </is>
+      </c>
+      <c r="F139" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G139" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B140" s="2" t="inlineStr">
+        <is>
+          <t>B1F</t>
+        </is>
+      </c>
+      <c r="C140" s="2" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D140" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E140" s="3" t="inlineStr">
+        <is>
+          <t>02/12/2025</t>
+        </is>
+      </c>
+      <c r="F140" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G140" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B141" s="6" t="inlineStr">
+        <is>
+          <t>B1F</t>
+        </is>
+      </c>
+      <c r="C141" s="6" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D141" s="6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E141" s="7" t="inlineStr">
+        <is>
+          <t>03/12/2025</t>
+        </is>
+      </c>
+      <c r="F141" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G141" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B142" s="2" t="inlineStr">
+        <is>
+          <t>B1F</t>
+        </is>
+      </c>
+      <c r="C142" s="2" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D142" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E142" s="3" t="inlineStr">
+        <is>
+          <t>04/12/2025</t>
+        </is>
+      </c>
+      <c r="F142" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G142" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B143" s="6" t="inlineStr">
+        <is>
+          <t>B1F</t>
+        </is>
+      </c>
+      <c r="C143" s="6" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D143" s="6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E143" s="7" t="inlineStr">
+        <is>
+          <t>09/12/2025</t>
+        </is>
+      </c>
+      <c r="F143" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G143" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B144" s="2" t="inlineStr">
+        <is>
+          <t>B1F</t>
+        </is>
+      </c>
+      <c r="C144" s="2" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D144" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E144" s="3" t="inlineStr">
+        <is>
+          <t>10/12/2025</t>
+        </is>
+      </c>
+      <c r="F144" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G144" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B145" s="6" t="inlineStr">
+        <is>
+          <t>B1F</t>
+        </is>
+      </c>
+      <c r="C145" s="6" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D145" s="6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E145" s="7" t="inlineStr">
+        <is>
+          <t>11/12/2025</t>
+        </is>
+      </c>
+      <c r="F145" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G145" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B146" s="2" t="inlineStr">
+        <is>
+          <t>B1F</t>
+        </is>
+      </c>
+      <c r="C146" s="2" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D146" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E146" s="3" t="inlineStr">
+        <is>
+          <t>16/12/2025</t>
+        </is>
+      </c>
+      <c r="F146" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G146" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B147" s="6" t="inlineStr">
+        <is>
+          <t>B1F</t>
+        </is>
+      </c>
+      <c r="C147" s="6" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D147" s="6" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E147" s="7" t="inlineStr">
+        <is>
+          <t>17/12/2025</t>
+        </is>
+      </c>
+      <c r="F147" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G147" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B148" s="2" t="inlineStr">
+        <is>
+          <t>B1F</t>
+        </is>
+      </c>
+      <c r="C148" s="2" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D148" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E148" s="3" t="inlineStr">
+        <is>
+          <t>18/12/2025</t>
+        </is>
+      </c>
+      <c r="F148" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G148" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B149" s="6" t="inlineStr">
+        <is>
+          <t>B1F</t>
+        </is>
+      </c>
+      <c r="C149" s="6" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D149" s="6" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E149" s="7" t="inlineStr">
+        <is>
+          <t>23/12/2025</t>
+        </is>
+      </c>
+      <c r="F149" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G149" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B150" s="2" t="inlineStr">
+        <is>
+          <t>B1F</t>
+        </is>
+      </c>
+      <c r="C150" s="2" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D150" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E150" s="3" t="inlineStr">
+        <is>
+          <t>24/12/2025</t>
+        </is>
+      </c>
+      <c r="F150" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G150" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B151" s="6" t="inlineStr">
+        <is>
+          <t>B1F</t>
+        </is>
+      </c>
+      <c r="C151" s="6" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D151" s="6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E151" s="7" t="inlineStr">
+        <is>
+          <t>25/12/2025</t>
+        </is>
+      </c>
+      <c r="F151" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G151" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B152" s="2" t="inlineStr">
+        <is>
+          <t>B1F</t>
+        </is>
+      </c>
+      <c r="C152" s="2" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D152" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E152" s="3" t="inlineStr">
+        <is>
+          <t>30/12/2025</t>
+        </is>
+      </c>
+      <c r="F152" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G152" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B153" s="6" t="inlineStr">
+        <is>
+          <t>B1F</t>
+        </is>
+      </c>
+      <c r="C153" s="6" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D153" s="6" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E153" s="7" t="inlineStr">
+        <is>
+          <t>31/12/2025</t>
+        </is>
+      </c>
+      <c r="F153" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G153" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B154" s="2" t="inlineStr">
+        <is>
+          <t>B1F</t>
+        </is>
+      </c>
+      <c r="C154" s="2" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D154" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E154" s="3" t="inlineStr">
+        <is>
+          <t>01/01/2026</t>
+        </is>
+      </c>
+      <c r="F154" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G154" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B155" s="6" t="inlineStr">
+        <is>
+          <t>B1F</t>
+        </is>
+      </c>
+      <c r="C155" s="6" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D155" s="6" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E155" s="7" t="inlineStr">
+        <is>
+          <t>06/01/2026</t>
+        </is>
+      </c>
+      <c r="F155" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G155" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B156" s="2" t="inlineStr">
+        <is>
+          <t>B1F</t>
+        </is>
+      </c>
+      <c r="C156" s="2" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D156" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E156" s="3" t="inlineStr">
+        <is>
+          <t>07/01/2026</t>
+        </is>
+      </c>
+      <c r="F156" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G156" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B157" s="6" t="inlineStr">
+        <is>
+          <t>B1F</t>
+        </is>
+      </c>
+      <c r="C157" s="6" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D157" s="6" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E157" s="7" t="inlineStr">
+        <is>
+          <t>08/01/2026</t>
+        </is>
+      </c>
+      <c r="F157" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G157" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B158" s="2" t="inlineStr">
+        <is>
+          <t>B1F</t>
+        </is>
+      </c>
+      <c r="C158" s="2" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D158" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E158" s="3" t="inlineStr">
+        <is>
+          <t>13/01/2026</t>
+        </is>
+      </c>
+      <c r="F158" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G158" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B159" s="6" t="inlineStr">
+        <is>
+          <t>B1F</t>
+        </is>
+      </c>
+      <c r="C159" s="6" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D159" s="6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E159" s="7" t="inlineStr">
+        <is>
+          <t>14/01/2026</t>
+        </is>
+      </c>
+      <c r="F159" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G159" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B160" s="2" t="inlineStr">
+        <is>
+          <t>B1F</t>
+        </is>
+      </c>
+      <c r="C160" s="2" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D160" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E160" s="3" t="inlineStr">
+        <is>
+          <t>15/01/2026</t>
+        </is>
+      </c>
+      <c r="F160" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G160" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B161" s="6" t="inlineStr">
+        <is>
+          <t>B1F</t>
+        </is>
+      </c>
+      <c r="C161" s="6" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D161" s="6" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E161" s="7" t="inlineStr">
+        <is>
+          <t>20/01/2026</t>
+        </is>
+      </c>
+      <c r="F161" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G161" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B162" s="2" t="inlineStr">
+        <is>
+          <t>B1F</t>
+        </is>
+      </c>
+      <c r="C162" s="2" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D162" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E162" s="3" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="F162" s="4" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G162" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B163" s="6" t="inlineStr">
+        <is>
+          <t>B1F</t>
+        </is>
+      </c>
+      <c r="C163" s="6" t="inlineStr">
+        <is>
+          <t>clinical</t>
+        </is>
+      </c>
+      <c r="D163" s="6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E163" s="7" t="inlineStr">
+        <is>
+          <t>22/01/2026</t>
+        </is>
+      </c>
+      <c r="F163" s="8" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="G163" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
